--- a/doc/source/type-chart.xlsx
+++ b/doc/source/type-chart.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\projects\MonsterBattles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\projects\MonsterBattles\doc\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="19200" windowHeight="11955"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19200" windowHeight="11955" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="14">
   <si>
     <t>Grass</t>
   </si>
@@ -51,12 +52,6 @@
   </si>
   <si>
     <t>Rock</t>
-  </si>
-  <si>
-    <t>Defending Type</t>
-  </si>
-  <si>
-    <t>Attacking Type</t>
   </si>
   <si>
     <t>.5X</t>
@@ -649,10 +644,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,396 +671,388 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>14</v>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>11</v>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>12</v>
+      <c r="K10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>12</v>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:K12">
+  <conditionalFormatting sqref="B2:K11">
     <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
       <formula>"2X"</formula>
     </cfRule>

--- a/doc/source/type-chart.xlsx
+++ b/doc/source/type-chart.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="16">
   <si>
     <t>Grass</t>
   </si>
@@ -67,13 +67,19 @@
   </si>
   <si>
     <t>2X / .5X</t>
+  </si>
+  <si>
+    <t>Attacking Type</t>
+  </si>
+  <si>
+    <t>Defending Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +110,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -169,12 +210,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -658,401 +706,441 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K11"/>
+      <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="J8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="I9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K11">
+  <mergeCells count="2">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="C1:L1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C3:L12">
     <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
       <formula>"2X"</formula>
     </cfRule>
@@ -1108,5 +1196,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>